--- a/natmiOut/OldD0/LR-pairs_lrc2p/Col4a1-Itgb8.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Col4a1-Itgb8.xlsx
@@ -528,52 +528,52 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>53.0557327013389</v>
+        <v>179.1580256666667</v>
       </c>
       <c r="H2">
-        <v>53.0557327013389</v>
+        <v>537.4740770000001</v>
       </c>
       <c r="I2">
-        <v>0.136726351308732</v>
+        <v>0.3468013736386751</v>
       </c>
       <c r="J2">
-        <v>0.136726351308732</v>
+        <v>0.3468013736386751</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.16524466463928</v>
+        <v>4.237840333333334</v>
       </c>
       <c r="N2">
-        <v>4.16524466463928</v>
+        <v>12.713521</v>
       </c>
       <c r="O2">
-        <v>0.4433658634410106</v>
+        <v>0.4475167411500002</v>
       </c>
       <c r="P2">
-        <v>0.4433658634410106</v>
+        <v>0.4475167411500002</v>
       </c>
       <c r="Q2">
-        <v>220.9901075627796</v>
+        <v>759.2431072105687</v>
       </c>
       <c r="R2">
-        <v>220.9901075627796</v>
+        <v>6833.187964895118</v>
       </c>
       <c r="S2">
-        <v>0.0606197968031349</v>
+        <v>0.1551994205571235</v>
       </c>
       <c r="T2">
-        <v>0.0606197968031349</v>
+        <v>0.1551994205571235</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>53.0557327013389</v>
+        <v>179.1580256666667</v>
       </c>
       <c r="H3">
-        <v>53.0557327013389</v>
+        <v>537.4740770000001</v>
       </c>
       <c r="I3">
-        <v>0.136726351308732</v>
+        <v>0.3468013736386751</v>
       </c>
       <c r="J3">
-        <v>0.136726351308732</v>
+        <v>0.3468013736386751</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.22935471275158</v>
+        <v>5.231839666666667</v>
       </c>
       <c r="N3">
-        <v>5.22935471275158</v>
+        <v>15.695519</v>
       </c>
       <c r="O3">
-        <v>0.5566341365589893</v>
+        <v>0.5524832588499998</v>
       </c>
       <c r="P3">
-        <v>0.5566341365589893</v>
+        <v>0.5524832588499998</v>
       </c>
       <c r="Q3">
-        <v>277.4472458402347</v>
+        <v>937.3260652845516</v>
       </c>
       <c r="R3">
-        <v>277.4472458402347</v>
+        <v>8435.934587560963</v>
       </c>
       <c r="S3">
-        <v>0.07610655450559704</v>
+        <v>0.1916019530815517</v>
       </c>
       <c r="T3">
-        <v>0.07610655450559704</v>
+        <v>0.1916019530815516</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>238.374216152697</v>
+        <v>239.807332</v>
       </c>
       <c r="H4">
-        <v>238.374216152697</v>
+        <v>719.421996</v>
       </c>
       <c r="I4">
-        <v>0.614298119377678</v>
+        <v>0.4642019905988459</v>
       </c>
       <c r="J4">
-        <v>0.614298119377678</v>
+        <v>0.4642019905988459</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.16524466463928</v>
+        <v>4.237840333333334</v>
       </c>
       <c r="N4">
-        <v>4.16524466463928</v>
+        <v>12.713521</v>
       </c>
       <c r="O4">
-        <v>0.4433658634410106</v>
+        <v>0.4475167411500002</v>
       </c>
       <c r="P4">
-        <v>0.4433658634410106</v>
+        <v>0.4475167411500002</v>
       </c>
       <c r="Q4">
-        <v>992.8869320175916</v>
+        <v>1016.265183778657</v>
       </c>
       <c r="R4">
-        <v>992.8869320175916</v>
+        <v>9146.386654007916</v>
       </c>
       <c r="S4">
-        <v>0.2723588161080732</v>
+        <v>0.2077381620681386</v>
       </c>
       <c r="T4">
-        <v>0.2723588161080732</v>
+        <v>0.2077381620681386</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>238.374216152697</v>
+        <v>239.807332</v>
       </c>
       <c r="H5">
-        <v>238.374216152697</v>
+        <v>719.421996</v>
       </c>
       <c r="I5">
-        <v>0.614298119377678</v>
+        <v>0.4642019905988459</v>
       </c>
       <c r="J5">
-        <v>0.614298119377678</v>
+        <v>0.4642019905988459</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.22935471275158</v>
+        <v>5.231839666666667</v>
       </c>
       <c r="N5">
-        <v>5.22935471275158</v>
+        <v>15.695519</v>
       </c>
       <c r="O5">
-        <v>0.5566341365589893</v>
+        <v>0.5524832588499998</v>
       </c>
       <c r="P5">
-        <v>0.5566341365589893</v>
+        <v>0.5524832588499998</v>
       </c>
       <c r="Q5">
-        <v>1246.54333063657</v>
+        <v>1254.633511915103</v>
       </c>
       <c r="R5">
-        <v>1246.54333063657</v>
+        <v>11291.70160723592</v>
       </c>
       <c r="S5">
-        <v>0.3419393032696047</v>
+        <v>0.2564638285307074</v>
       </c>
       <c r="T5">
-        <v>0.3419393032696047</v>
+        <v>0.2564638285307074</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>96.6132644219299</v>
+        <v>97.63589966666666</v>
       </c>
       <c r="H6">
-        <v>96.6132644219299</v>
+        <v>292.907699</v>
       </c>
       <c r="I6">
-        <v>0.24897552931359</v>
+        <v>0.1889966357624789</v>
       </c>
       <c r="J6">
-        <v>0.24897552931359</v>
+        <v>0.1889966357624789</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.16524466463928</v>
+        <v>4.237840333333334</v>
       </c>
       <c r="N6">
-        <v>4.16524466463928</v>
+        <v>12.713521</v>
       </c>
       <c r="O6">
-        <v>0.4433658634410106</v>
+        <v>0.4475167411500002</v>
       </c>
       <c r="P6">
-        <v>0.4433658634410106</v>
+        <v>0.4475167411500002</v>
       </c>
       <c r="Q6">
-        <v>402.4178841668275</v>
+        <v>413.7653535886865</v>
       </c>
       <c r="R6">
-        <v>402.4178841668275</v>
+        <v>3723.888182298179</v>
       </c>
       <c r="S6">
-        <v>0.1103872505298025</v>
+        <v>0.08457915852473816</v>
       </c>
       <c r="T6">
-        <v>0.1103872505298025</v>
+        <v>0.08457915852473816</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>96.6132644219299</v>
+        <v>97.63589966666666</v>
       </c>
       <c r="H7">
-        <v>96.6132644219299</v>
+        <v>292.907699</v>
       </c>
       <c r="I7">
-        <v>0.24897552931359</v>
+        <v>0.1889966357624789</v>
       </c>
       <c r="J7">
-        <v>0.24897552931359</v>
+        <v>0.1889966357624789</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.22935471275158</v>
+        <v>5.231839666666667</v>
       </c>
       <c r="N7">
-        <v>5.22935471275158</v>
+        <v>15.695519</v>
       </c>
       <c r="O7">
-        <v>0.5566341365589893</v>
+        <v>0.5524832588499998</v>
       </c>
       <c r="P7">
-        <v>0.5566341365589893</v>
+        <v>0.5524832588499998</v>
       </c>
       <c r="Q7">
-        <v>505.2250296191337</v>
+        <v>510.8153727667534</v>
       </c>
       <c r="R7">
-        <v>505.2250296191337</v>
+        <v>4597.33835490078</v>
       </c>
       <c r="S7">
-        <v>0.1385882787837875</v>
+        <v>0.1044174772377408</v>
       </c>
       <c r="T7">
-        <v>0.1385882787837875</v>
+        <v>0.1044174772377408</v>
       </c>
     </row>
   </sheetData>
